--- a/PUSH.xlsx
+++ b/PUSH.xlsx
@@ -19,21 +19,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>PUSH</t>
   </si>
+  <si>
+    <t>changed</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -57,8 +68,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -339,20 +351,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>